--- a/AssetManagement/AssetManagement/bin/Debug/Export files/AssetMngDb637946794299530052.xlsx
+++ b/AssetManagement/AssetManagement/bin/Debug/Export files/AssetMngDb637946794299530052.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\ZHasan20221Repo\AssetManagement\AssetManagement\bin\Debug\Export files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A497A2-971A-47EB-940E-C1773425C6B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EC2755-912D-4015-BCE6-37916894530A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4190,7 +4190,7 @@
   <dimension ref="A1:AN5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AN5" sqref="AN5"/>
+      <selection activeCell="AN4" sqref="AN4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4425,10 +4425,10 @@
         <v>427</v>
       </c>
       <c r="AM2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:40">
@@ -4523,10 +4523,10 @@
         <v>427</v>
       </c>
       <c r="AM3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -4636,10 +4636,10 @@
         <v>427</v>
       </c>
       <c r="AM4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AN4">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -4746,10 +4746,10 @@
         <v>427</v>
       </c>
       <c r="AM5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AN5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
